--- a/results.xlsx
+++ b/results.xlsx
@@ -18,6 +18,22 @@
     <sheet name="run_20251007_123514" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="run_20251007_150511" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="run_20251007_150537" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="run_20251009_101939" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="run_20251009_102049" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="run_20251009_102123" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="run_20251009_102141" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="run_20251009_102214" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="run_20251009_102243" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="run_20251009_102303" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="run_20251009_102355" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="run_20251009_104303" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="run_20251009_104745" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="run_20251009_142157" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="run_20251014_143023" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="run_20251014_143043" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="run_20251014_143048" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="run_20251014_143142" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="run_20251015_144828" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -781,8 +797,6 @@
       <c r="C2" t="n">
         <v>0.4322</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>1</v>
       </c>
@@ -799,8 +813,6 @@
       <c r="C3" t="n">
         <v>0.431225</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>1</v>
       </c>
@@ -817,8 +829,6 @@
       <c r="C4" t="n">
         <v>0.4330333333333333</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>1</v>
       </c>
@@ -835,8 +845,6 @@
       <c r="C5" t="n">
         <v>0.43529375</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>1</v>
       </c>
@@ -853,8 +861,6 @@
       <c r="C6" t="n">
         <v>0.433432</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>1</v>
       </c>
@@ -871,8 +877,6 @@
       <c r="C7" t="n">
         <v>0.443724234405268</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>1</v>
       </c>
@@ -889,8 +893,6 @@
       <c r="C8" t="n">
         <v>0.4454776647144713</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>1</v>
       </c>
@@ -907,8 +909,6 @@
       <c r="C9" t="n">
         <v>0.4463092548243507</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>1</v>
       </c>
@@ -925,8 +925,6 @@
       <c r="C10" t="n">
         <v>0.4468475321435363</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>1</v>
       </c>
@@ -943,8 +941,6 @@
       <c r="C11" t="n">
         <v>0.4467701749240127</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>1</v>
       </c>
@@ -961,9 +957,671 @@
       <c r="C12" t="n">
         <v>0.4445203691228658</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4932 (1).JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.947649607766657</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4802894592285156</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4932.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.945389230011413</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4655036926269531</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4933 (1).JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.943710154297199</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4859380722045898</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4933.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.944136697943529</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4874162673950195</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4932 (1).JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.947649607766657</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4802894592285156</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4932.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.945389230011413</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4655036926269531</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4934 (1).JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.93912885822386</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4923543930053711</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4934.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.938237282511771</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4846315383911133</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4935.JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.874112974870838</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2946157455444336</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4936 (1).JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.824075209804778</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2181978225708008</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4935 (1).JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.874266645595941</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2977790832519531</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4935.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.874112974870838</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2946157455444336</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4936 (1).JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.824075209804778</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2181978225708008</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4936.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.822396335244826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2153263092041016</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4936 (1).JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.824075209804778</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2181978225708008</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4936.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.822396335244826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2153263092041016</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1055,6 +1713,738 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>S__155467821_0.jpg</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.44258559776684</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01243877410888672</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S__155467822_0.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.870946233200506</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4187889099121094</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S__155467823_0.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4890297199707471</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.4849853515625e-05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S__155467824_0.jpg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.830072563303691</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3562278747558594</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4925.JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.521820002249269</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04325675964355469</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4928.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.802901248807681</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1015996932983398</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4925.JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.521820002249269</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04325675964355469</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4928.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.802901248807681</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1015996932983398</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4925.JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.521820002249269</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04325675964355469</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4928.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.802901248807681</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1015996932983398</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4925.JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.521820002249269</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04325675964355469</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4928.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.802901248807681</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1015996932983398</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4925.JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.521820002249269</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04325675964355469</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4928.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.802901248807681</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1015996932983398</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>S__155467821_0.jpg</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.44258559776684</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01243877410888672</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S__155467822_0.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.870946233200506</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4187889099121094</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S__155467823_0.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4890297199707471</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.4849853515625e-05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S__155467824_0.jpg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.830072563303691</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3562278747558594</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fractal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>occupancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pred_fractal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pred_occupancy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_4925.JPG</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.521820002249269</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04325675964355469</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMG_4928.JPG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.802901248807681</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1015996932983398</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
